--- a/src/main/resources/excel/sample.xlsx
+++ b/src/main/resources/excel/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hegel\Desktop\excel2sql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\excel2sql\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="@#$变更记录" sheetId="27" r:id="rId1"/>
     <sheet name="职位表" sheetId="31" r:id="rId2"/>
     <sheet name="配置表" sheetId="32" r:id="rId3"/>
-    <sheet name="测试表" sheetId="19" r:id="rId4"/>
+    <sheet name="员工表" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -27,58 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
-  <si>
-    <t>VARCHAR(60)</t>
-  </si>
-  <si>
-    <t>VARCHAR(8)</t>
-  </si>
-  <si>
-    <t>EFF_DT</t>
-  </si>
-  <si>
-    <t>EXP_DT</t>
-  </si>
-  <si>
-    <t>协议备注</t>
-  </si>
-  <si>
-    <t>协议类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGR_RMK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGR_TYP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGR_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议签订日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议到期日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>varchar(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,15 +50,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>协议文件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URM_ID</t>
   </si>
   <si>
     <t>T_URM_CORE.URM_TYPE</t>
@@ -207,14 +149,6 @@
   </si>
   <si>
     <t>mpos商户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGR_FILE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,7 +243,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
+    <t>NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_STAFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFF_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAFF_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -317,22 +278,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_URM_HELLO</t>
+    <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工姓名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,12 +384,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -455,6 +433,31 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="mononoki"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -484,18 +487,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,44 +510,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -842,211 +854,211 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
-      <c r="A1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14"/>
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14"/>
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" ht="15.75">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" ht="15.75">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" ht="15.75">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" ht="15.75">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1073,75 +1085,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>19</v>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="12" t="s">
-        <v>38</v>
+      <c r="B3" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="12" t="s">
-        <v>39</v>
+      <c r="B4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="12" t="s">
-        <v>40</v>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1168,105 +1180,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>46</v>
+      <c r="A1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1280,147 +1292,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3"/>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25">
+      <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="B3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="3"/>
+    <row r="3" spans="1:8" ht="17.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="7"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15">
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
